--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivhuya\Automation_Practice\TestAutomationProjects\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivhuya\Automation_Practice\Zwivhuya_kurtosys_Technical_Assessment\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E8EA2-BEA6-4B26-8DD3-7E0CA5FD22DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7395D2C1-3B9D-4E82-B635-E1B9FD34368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11FAD0F8-8DA2-4697-97F4-A369F13C6F65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
+    <sheet name="WhitePaperDetails" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,30 +35,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TC_ID</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>ZwivhuyaNetshabumu</t>
-  </si>
-  <si>
-    <t>15Y2U9</t>
-  </si>
-  <si>
-    <t>Login with valid credentials</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>TesctCaseName</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Fillout all the fields with valid data and make email field null</t>
+  </si>
+  <si>
+    <t>Zwivhuya</t>
+  </si>
+  <si>
+    <t>Netshabumu</t>
+  </si>
+  <si>
+    <t>Kurtosys</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Finance</t>
   </si>
 </sst>
 </file>
@@ -416,44 +428,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E6F380-E500-490A-93FC-BCFD562E2655}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivhuya\Automation_Practice\Zwivhuya_kurtosys_Technical_Assessment\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivhuya\Automation_Practice\IlabAutomationAssessment\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7395D2C1-3B9D-4E82-B635-E1B9FD34368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEC51FE-B6FC-4126-BA1C-BC8E76819967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11FAD0F8-8DA2-4697-97F4-A369F13C6F65}"/>
   </bookViews>
   <sheets>
-    <sheet name="WhitePaperDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Ilab" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TC_ID</t>
   </si>
@@ -52,32 +52,26 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Fillout all the fields with valid data and make email field null</t>
-  </si>
-  <si>
     <t>Zwivhuya</t>
   </si>
   <si>
     <t>Netshabumu</t>
   </si>
   <si>
-    <t>Kurtosys</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Finance</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>automationAssessment@iLABQuality.com</t>
+  </si>
+  <si>
+    <t>Navigate to Ilab Website and apply the first south african job without attachment then verify that the validation message displayed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +81,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,13 +111,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E6F380-E500-490A-93FC-BCFD562E2655}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +447,10 @@
     <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,35 +464,32 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FE9817D6-C2B2-4A8C-8C8D-24A5A2050CCB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivhuya\Automation_Practice\IlabAutomationAssessment\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivhuya\Automation_Practice\Automation_Testing_QA_Expertise_Test\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEC51FE-B6FC-4126-BA1C-BC8E76819967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F4D49A-B276-4183-8A32-33FE794C530B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11FAD0F8-8DA2-4697-97F4-A369F13C6F65}"/>
+    <workbookView xWindow="19425" yWindow="1005" windowWidth="28890" windowHeight="15600" xr2:uid="{11FAD0F8-8DA2-4697-97F4-A369F13C6F65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ilab" sheetId="1" r:id="rId1"/>
+    <sheet name="QA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TC_ID</t>
   </si>
@@ -46,32 +46,26 @@
     <t>TesctCaseName</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Zwivhuya</t>
-  </si>
-  <si>
-    <t>Netshabumu</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>automationAssessment@iLABQuality.com</t>
-  </si>
-  <si>
-    <t>Navigate to Ilab Website and apply the first south african job without attachment then verify that the validation message displayed</t>
+    <t xml:space="preserve">QA Expertise Test Automation Testing </t>
+  </si>
+  <si>
+    <t>SelectCountry</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>SelectRepublic</t>
+  </si>
+  <si>
+    <t>Republic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,14 +75,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,19 +97,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E6F380-E500-490A-93FC-BCFD562E2655}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -446,11 +429,10 @@
   <cols>
     <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,38 +440,29 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{FE9817D6-C2B2-4A8C-8C8D-24A5A2050CCB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>